--- a/res/testcase/system/childOperator.xlsx
+++ b/res/testcase/system/childOperator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -588,9 +588,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -608,41 +608,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,14 +630,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +670,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,18 +705,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,13 +737,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,7 +746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,13 +767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +797,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,25 +893,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,109 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +972,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,21 +1025,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1056,15 +1056,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1073,6 +1064,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1081,10 +1081,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,133 +1093,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3039,8 +3039,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3821,8 +3821,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/childOperator.xlsx
+++ b/res/testcase/system/childOperator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>动作</t>
   </si>
@@ -456,13 +456,19 @@
     <t>21</t>
   </si>
   <si>
+    <t>暂停1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>操作成功</t>
   </si>
   <si>
     <t>ChildOperatorPage.操作成功-提示</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>3保存后截图</t>
@@ -587,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -609,74 +615,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +644,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -705,11 +659,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,9 +704,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,16 +750,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,7 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +827,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,25 +869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,79 +917,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,17 +982,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,16 +1003,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1041,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1053,26 +1079,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1081,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,133 +1099,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1922,10 +1928,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2281,42 +2287,57 @@
         <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>147</v>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C40:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C20 C21 C22 C23 C2:C4 C12:C15 C16:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C20 C21 C22 C23 C24 C2:C4 C12:C15 C16:C19">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C29">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2429,13 +2450,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>93</v>
@@ -2446,13 +2467,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2468,7 +2489,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
@@ -2476,13 +2497,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2498,7 +2519,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
@@ -2527,10 +2548,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
@@ -2545,7 +2566,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2689,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>93</v>
@@ -2685,13 +2706,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2707,7 +2728,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
@@ -2715,13 +2736,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2730,7 +2751,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -2739,7 +2760,7 @@
         <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -2754,7 +2775,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
@@ -2783,10 +2804,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
@@ -2801,7 +2822,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2924,16 +2945,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2941,13 +2962,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2963,7 +2984,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2971,13 +2992,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2993,7 +3014,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3007,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3039,8 +3060,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3136,16 +3157,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -3153,13 +3174,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3175,7 +3196,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
@@ -3183,13 +3204,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3198,7 +3219,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3219,10 +3240,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -3237,7 +3258,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
@@ -3266,10 +3287,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
@@ -3284,7 +3305,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3407,16 +3428,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
@@ -3424,13 +3445,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3446,7 +3467,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
@@ -3454,13 +3475,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3469,13 +3490,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E10" s="2">
         <v>123456</v>
@@ -3510,7 +3531,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
@@ -3518,7 +3539,7 @@
         <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -3539,10 +3560,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
@@ -3557,7 +3578,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3680,16 +3701,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
@@ -3697,13 +3718,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3719,7 +3740,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
@@ -3727,13 +3748,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3749,7 +3770,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -3757,7 +3778,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -3778,10 +3799,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
@@ -3796,7 +3817,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3918,16 +3939,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:5">
@@ -3935,13 +3956,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3957,7 +3978,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
@@ -3965,13 +3986,13 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3987,7 +4008,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -3995,7 +4016,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -4016,10 +4037,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
@@ -4034,7 +4055,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/childOperator.xlsx
+++ b/res/testcase/system/childOperator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>ChildOperatorPage.运营商名称</t>
   </si>
   <si>
-    <t>UI运营商</t>
+    <t>UI的运营商</t>
   </si>
   <si>
     <t>7</t>
@@ -402,7 +402,7 @@
     <t>ChildOperatorPage.用户名称</t>
   </si>
   <si>
-    <t>UIauto</t>
+    <t>UI_auto</t>
   </si>
   <si>
     <t>16</t>
@@ -414,7 +414,7 @@
     <t>ChildOperatorPage.用户昵称</t>
   </si>
   <si>
-    <t>UI用户昵称</t>
+    <t>UI的用户昵称</t>
   </si>
   <si>
     <t>17</t>
@@ -513,7 +513,7 @@
     <t>修改运营商名称</t>
   </si>
   <si>
-    <t>UI运营商修改后</t>
+    <t>UI的运营商修改后</t>
   </si>
   <si>
     <t>3修改运营商名称界面</t>
@@ -543,7 +543,7 @@
     <t>ChildOperatorPage.勾选绑定停车场</t>
   </si>
   <si>
-    <t>LJM测试停车场;on</t>
+    <t>$下级运营商管理.绑定停车场;on</t>
   </si>
   <si>
     <t>3绑定停车场界面</t>
@@ -593,9 +593,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -615,7 +615,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,75 +712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,25 +743,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +773,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,55 +905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,79 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,6 +982,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1002,17 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,60 +1079,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,145 +1087,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,7 +1327,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1930,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2353,7 +2353,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2848,7 +2848,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3069,7 +3069,7 @@
     <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
     <col min="2" max="3" width="26" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3331,7 +3331,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3603,8 +3603,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3843,7 +3843,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
